--- a/Momentum_strategy.xlsx
+++ b/Momentum_strategy.xlsx
@@ -462,11 +462,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="5" customWidth="1" min="2" max="2"/>
-    <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="28" customWidth="1" min="4" max="4"/>
-    <col width="3" customWidth="1" min="5" max="5"/>
+    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="31" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -479,7 +479,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>2023-01-27 19:27:36</t>
+          <t>2023-01-27 19:28:24</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>371.21</v>
+        <v>371.31</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>0.004342857142857143</v>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>278.25</v>
+        <v>278.19</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>0.001699999999999999</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.25</v>
+        <v>60.21</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>0.00122857142857143</v>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>110.4</v>
+        <v>110.31</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>0.001147619047619048</v>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>76.27</v>
+        <v>76.26000000000001</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>-8.095238095238066e-05</v>
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>115.42</v>
+        <v>115.46</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>-0.002461904761904762</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>146.84</v>
+        <v>146.79</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>-0.004704761904761905</v>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.88</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>-0.005657142857142855</v>
